--- a/experiment/output/results/PACS/RSC/SDG/0_1_2.xlsx
+++ b/experiment/output/results/PACS/RSC/SDG/0_1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,20 +488,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250131_20-04-13_resnet50_EVE</t>
+          <t>250216_03-53-42_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48.412</v>
+        <v>53.309</v>
       </c>
       <c r="E2" t="n">
-        <v>38.039</v>
+        <v>50.056</v>
       </c>
       <c r="F2" t="n">
-        <v>41.527</v>
+        <v>50.924</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -520,23 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250129_01-20-33_resnet50_adam</t>
+          <t>250216_05-15-39_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51.546</v>
+        <v>56.561</v>
       </c>
       <c r="E3" t="n">
-        <v>42.553</v>
+        <v>53.46</v>
       </c>
       <c r="F3" t="n">
-        <v>41.954</v>
+        <v>53.794</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -552,23 +552,2039 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>250216_19-28-43_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>62.857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>58.587</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61.628</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250215_22-27-28_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>58.929</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49.062</v>
+      </c>
+      <c r="F5" t="n">
+        <v>53.638</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250216_14-48-44_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41.067</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42.122</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250216_09-50-10_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>58.415</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49.164</v>
+      </c>
+      <c r="F7" t="n">
+        <v>53.177</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250215_19-48-56_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>40.174</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38.54</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38.54</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250216_03-25-46_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>66.584</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60.323</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63.831</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250216_04-47-17_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>58.214</v>
+      </c>
+      <c r="E10" t="n">
+        <v>58.377</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49.797</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250216_11-46-55_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>53.278</v>
+      </c>
+      <c r="E11" t="n">
+        <v>53.278</v>
+      </c>
+      <c r="F11" t="n">
+        <v>51.592</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250216_00-54-02_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>59.955</v>
+      </c>
+      <c r="E12" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>52.117</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>250216_11-21-56_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>60.803</v>
+      </c>
+      <c r="E13" t="n">
+        <v>57.914</v>
+      </c>
+      <c r="F13" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250216_00-30-30_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>59.427</v>
+      </c>
+      <c r="E14" t="n">
+        <v>59.427</v>
+      </c>
+      <c r="F14" t="n">
+        <v>53.863</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>250215_21-59-52_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>51.722</v>
+      </c>
+      <c r="E15" t="n">
+        <v>51.926</v>
+      </c>
+      <c r="F15" t="n">
+        <v>39.079</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>250216_02-58-33_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>55.025</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52.963</v>
+      </c>
+      <c r="F16" t="n">
+        <v>48.686</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>250216_12-33-19_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>54.127</v>
+      </c>
+      <c r="E17" t="n">
+        <v>54.127</v>
+      </c>
+      <c r="F17" t="n">
+        <v>54.127</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>250216_12-58-08_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>55.055</v>
+      </c>
+      <c r="E18" t="n">
+        <v>54.305</v>
+      </c>
+      <c r="F18" t="n">
+        <v>55.055</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>250215_20-13-19_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>58.456</v>
+      </c>
+      <c r="E19" t="n">
+        <v>58.456</v>
+      </c>
+      <c r="F19" t="n">
+        <v>52.79</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>250216_18-18-42_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>51.801</v>
+      </c>
+      <c r="E20" t="n">
+        <v>49.889</v>
+      </c>
+      <c r="F20" t="n">
+        <v>50.083</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>250216_15-34-56_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>43.268</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37.294</v>
+      </c>
+      <c r="F21" t="n">
+        <v>37.294</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>250216_10-12-05_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>57.782</v>
+      </c>
+      <c r="E22" t="n">
+        <v>57.782</v>
+      </c>
+      <c r="F22" t="n">
+        <v>55.681</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>250216_02-09-48_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>49.391</v>
+      </c>
+      <c r="E23" t="n">
+        <v>49.064</v>
+      </c>
+      <c r="F23" t="n">
+        <v>42.931</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>250216_08-15-27_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>57.005</v>
+      </c>
+      <c r="E24" t="n">
+        <v>47.315</v>
+      </c>
+      <c r="F24" t="n">
+        <v>47.315</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>250216_17-54-41_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>56.911</v>
+      </c>
+      <c r="E25" t="n">
+        <v>49.555</v>
+      </c>
+      <c r="F25" t="n">
+        <v>54.571</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>250216_10-59-44_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>55.639</v>
+      </c>
+      <c r="E26" t="n">
+        <v>55.639</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50.254</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>250216_06-52-21_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>55.874</v>
+      </c>
+      <c r="E27" t="n">
+        <v>55.874</v>
+      </c>
+      <c r="F27" t="n">
+        <v>55.874</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>250216_17-06-56_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>63.622</v>
+      </c>
+      <c r="E28" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53.355</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>250215_22-52-01_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>64.39400000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>60.818</v>
+      </c>
+      <c r="F29" t="n">
+        <v>57.221</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>250131_20-04-13_resnet50_EVE</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>48.412</v>
+      </c>
+      <c r="E30" t="n">
+        <v>38.039</v>
+      </c>
+      <c r="F30" t="n">
+        <v>41.527</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>250216_19-04-50_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>60.276</v>
+      </c>
+      <c r="E31" t="n">
+        <v>52.793</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53.049</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>250216_16-45-08_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>50.785</v>
+      </c>
+      <c r="E32" t="n">
+        <v>42.745</v>
+      </c>
+      <c r="F32" t="n">
+        <v>48.068</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>250215_23-15-53_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>58.435</v>
+      </c>
+      <c r="E33" t="n">
+        <v>54.233</v>
+      </c>
+      <c r="F33" t="n">
+        <v>58.435</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>250216_14-04-42_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>53.614</v>
+      </c>
+      <c r="E34" t="n">
+        <v>52.158</v>
+      </c>
+      <c r="F34" t="n">
+        <v>47.482</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>250216_20-11-42_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>67.036</v>
+      </c>
+      <c r="E35" t="n">
+        <v>57.29</v>
+      </c>
+      <c r="F35" t="n">
+        <v>55.109</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>250129_01-20-33_resnet50_adam</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>51.546</v>
+      </c>
+      <c r="E36" t="n">
+        <v>42.553</v>
+      </c>
+      <c r="F36" t="n">
+        <v>41.954</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>250216_01-18-12_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>59.564</v>
+      </c>
+      <c r="E37" t="n">
+        <v>59.564</v>
+      </c>
+      <c r="F37" t="n">
+        <v>58.084</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>250216_08-39-20_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>53.233</v>
+      </c>
+      <c r="E38" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="F38" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>250216_07-47-19_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>46.218</v>
+      </c>
+      <c r="E39" t="n">
+        <v>42.202</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37.125</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>250216_07-20-29_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>64.518</v>
+      </c>
+      <c r="E40" t="n">
+        <v>64.518</v>
+      </c>
+      <c r="F40" t="n">
+        <v>64.518</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>250127_23-26-43_resnet50_sgd</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D41" t="n">
         <v>17.408</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E41" t="n">
         <v>15.483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F41" t="n">
         <v>17.128</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>250215_18-51-43_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>48.412</v>
+      </c>
+      <c r="E42" t="n">
+        <v>38.039</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41.527</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>250215_21-05-12_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>57.513</v>
+      </c>
+      <c r="E43" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="F43" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>250216_18-40-48_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>50.371</v>
+      </c>
+      <c r="E44" t="n">
+        <v>40.352</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42.255</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>250216_09-27-06_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>53.595</v>
+      </c>
+      <c r="E45" t="n">
+        <v>53.595</v>
+      </c>
+      <c r="F45" t="n">
+        <v>46.256</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>250216_13-19-25_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>56.311</v>
+      </c>
+      <c r="E46" t="n">
+        <v>56.311</v>
+      </c>
+      <c r="F46" t="n">
+        <v>48.823</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>250216_14-26-43_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>56.738</v>
+      </c>
+      <c r="E47" t="n">
+        <v>49.465</v>
+      </c>
+      <c r="F47" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>250216_19-50-34_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>55.65</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46.502</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47.623</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>250215_20-37-35_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>61.227</v>
+      </c>
+      <c r="E49" t="n">
+        <v>48.205</v>
+      </c>
+      <c r="F49" t="n">
+        <v>61.227</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>250216_04-22-08_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="E50" t="n">
+        <v>55.601</v>
+      </c>
+      <c r="F50" t="n">
+        <v>55.73</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>250216_06-04-07_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>61.249</v>
+      </c>
+      <c r="E51" t="n">
+        <v>61.249</v>
+      </c>
+      <c r="F51" t="n">
+        <v>61.249</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>250216_02-33-36_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>56.193</v>
+      </c>
+      <c r="E52" t="n">
+        <v>50.836</v>
+      </c>
+      <c r="F52" t="n">
+        <v>47.26</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>250216_05-40-24_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>44.681</v>
+      </c>
+      <c r="E53" t="n">
+        <v>34.731</v>
+      </c>
+      <c r="F53" t="n">
+        <v>37.383</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>250216_09-01-52_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>61.14</v>
+      </c>
+      <c r="E54" t="n">
+        <v>54.723</v>
+      </c>
+      <c r="F54" t="n">
+        <v>56.278</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>250216_01-42-50_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>58.933</v>
+      </c>
+      <c r="E55" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="F55" t="n">
+        <v>43.796</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>250216_12-08-58_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>49.233</v>
+      </c>
+      <c r="E56" t="n">
+        <v>49.233</v>
+      </c>
+      <c r="F56" t="n">
+        <v>49.086</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>250215_21-32-28_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>58.305</v>
+      </c>
+      <c r="E57" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="F57" t="n">
+        <v>58.206</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>250216_16-20-31_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>56.995</v>
+      </c>
+      <c r="E58" t="n">
+        <v>58.363</v>
+      </c>
+      <c r="F58" t="n">
+        <v>55.511</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>250216_15-56-40_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>57.131</v>
+      </c>
+      <c r="E59" t="n">
+        <v>55.946</v>
+      </c>
+      <c r="F59" t="n">
+        <v>45.116</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>250216_06-27-56_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>55.779</v>
+      </c>
+      <c r="E60" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="F60" t="n">
+        <v>46.773</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>250216_00-06-54_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>54.436</v>
+      </c>
+      <c r="E61" t="n">
+        <v>49.018</v>
+      </c>
+      <c r="F61" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>250216_13-41-06_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>66.738</v>
+      </c>
+      <c r="E62" t="n">
+        <v>53.039</v>
+      </c>
+      <c r="F62" t="n">
+        <v>53.938</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>250216_10-37-31_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>60.244</v>
+      </c>
+      <c r="E63" t="n">
+        <v>54.115</v>
+      </c>
+      <c r="F63" t="n">
+        <v>51.872</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>250215_19-19-44_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>56.087</v>
+      </c>
+      <c r="E64" t="n">
+        <v>51.345</v>
+      </c>
+      <c r="F64" t="n">
+        <v>53.292</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>250216_17-33-12_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>59.063</v>
+      </c>
+      <c r="E65" t="n">
+        <v>57.077</v>
+      </c>
+      <c r="F65" t="n">
+        <v>45.398</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>250216_15-10-27_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>58.955</v>
+      </c>
+      <c r="E66" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>58.772</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>250215_23-43-12_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>53.942</v>
+      </c>
+      <c r="E67" t="n">
+        <v>40.153</v>
+      </c>
+      <c r="F67" t="n">
+        <v>36.501</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
